--- a/AttendanceManagement/wwwroot/ExcelTemplates/MIS Upload.xlsx
+++ b/AttendanceManagement/wwwroot/ExcelTemplates/MIS Upload.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29103"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3A2DACFB-4F44-43DC-AD0A-90C4913B2D07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{297791E2-DCAA-4F35-AD63-C46D2187DC2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,15 +31,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Emp ID</t>
   </si>
   <si>
     <t>Emp Name</t>
-  </si>
-  <si>
-    <t>Tenure in years</t>
   </si>
   <si>
     <t>Reporting Managers</t>
@@ -460,10 +457,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M1"/>
+  <dimension ref="A1:L1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M1" sqref="M1"/>
+      <selection activeCell="C1" sqref="C1:L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -483,7 +480,7 @@
     <col min="13" max="13" width="13.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -499,7 +496,7 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="2" t="s">
@@ -517,11 +514,8 @@
       <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" t="s">
         <v>11</v>
-      </c>
-      <c r="M1" t="s">
-        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/AttendanceManagement/wwwroot/ExcelTemplates/MIS Upload.xlsx
+++ b/AttendanceManagement/wwwroot/ExcelTemplates/MIS Upload.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29103"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29108"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{297791E2-DCAA-4F35-AD63-C46D2187DC2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5C4369D6-34D6-460E-83C0-92510E3A6075}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,12 +31,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Emp ID</t>
   </si>
   <si>
     <t>Emp Name</t>
+  </si>
+  <si>
+    <t>Reporting ManagerId</t>
   </si>
   <si>
     <t>Reporting Managers</t>
@@ -457,30 +460,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L1"/>
+  <dimension ref="A1:M1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:L1"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="7.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5703125" customWidth="1"/>
+    <col min="4" max="4" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -496,7 +500,7 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="2" t="s">
@@ -514,8 +518,11 @@
       <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="2" t="s">
         <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/AttendanceManagement/wwwroot/ExcelTemplates/MIS Upload.xlsx
+++ b/AttendanceManagement/wwwroot/ExcelTemplates/MIS Upload.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29108"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5C4369D6-34D6-460E-83C0-92510E3A6075}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A9848F6E-4117-4D86-9AB2-C8BECFB89911}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -60,13 +60,13 @@
     <t>Present %</t>
   </si>
   <si>
-    <t>Final%</t>
+    <t>Final %</t>
   </si>
   <si>
     <t>Grade</t>
   </si>
   <si>
-    <t>AbsentDays</t>
+    <t>Absent Days</t>
   </si>
   <si>
     <t>HR Comments</t>
@@ -463,7 +463,7 @@
   <dimension ref="A1:M1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
